--- a/mmo_excel/xlsx/shop.xlsx
+++ b/mmo_excel/xlsx/shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4983B9AB-5501-4CF0-975C-3E9272B5A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECCEEC7-C33C-4AFB-B426-A3F520471F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="2805" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="3390" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,31 +51,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏通用货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一件适合出门的武器，新手用了都说好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带上它，感觉自己不再是萌新了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当你挥舞时，小心别被它的气流掀翻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精力补给站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铁匠铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法药铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外补给站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,19 +409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,88 +428,120 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>